--- a/input_data/new/12_00_00_to_13_00_00.xlsx
+++ b/input_data/new/12_00_00_to_13_00_00.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5 sem\EE5206 Software Project\Project_files\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\5 sem\EE5206 Software Project\Project_files\input_data\new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3D462C-6085-4A32-908E-36E56B9839CE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F96EC04-5675-4422-B81A-0DF88A84EFC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,7 +870,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h\.mm\.ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h\.mm\.ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -886,12 +886,18 @@
       <name val="Iskoola Pota"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -921,15 +927,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1235,12 +1243,13 @@
   <dimension ref="A1:P1084"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="8.88671875" style="3"/>
+    <col min="16" max="16" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -1293,50 +1302,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>2521</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>1.5</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>460</v>
       </c>
-      <c r="L2">
-        <v>410</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" s="4">
+        <v>410</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>26</v>
       </c>
     </row>
